--- a/dados_historicos/dados_geral/preco_brl_arroba.xlsx
+++ b/dados_historicos/dados_geral/preco_brl_arroba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cliente HT\Desktop\programas python\PRODUÇÃO DE GADO\dados_historicos\dados_geral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78CB0054-0693-4D3A-B1C8-828959E7ED9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE027462-979C-4FFF-9FAD-E4F54D8A647D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{903A5E8E-2625-4AB6-9B82-645DDC8155D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{CB44E006-DE00-421A-8EE6-60877CE9A2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7008" uniqueCount="7008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7014" uniqueCount="7014">
   <si>
     <t>INDICADOR DO BOI GORDO CEPEA/ESALQ</t>
   </si>
@@ -21045,6 +21045,24 @@
   </si>
   <si>
     <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>16/09/2025</t>
+  </si>
+  <si>
+    <t>17/09/2025</t>
+  </si>
+  <si>
+    <t>18/09/2025</t>
+  </si>
+  <si>
+    <t>19/09/2025</t>
+  </si>
+  <si>
+    <t>22/09/2025</t>
+  </si>
+  <si>
+    <t>23/09/2025</t>
   </si>
 </sst>
 </file>
@@ -21484,11 +21502,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BFB6D6-4F63-498C-969C-C98362A399A1}">
-  <dimension ref="A1:J7007"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD554FF-A9FE-43C6-A1E5-05AB9445DF8E}">
+  <dimension ref="A1:J7013"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -98580,6 +98598,72 @@
       </c>
       <c r="C7007" s="2">
         <v>57.9</v>
+      </c>
+    </row>
+    <row r="7008" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7008" t="s">
+        <v>7008</v>
+      </c>
+      <c r="B7008" s="2">
+        <v>307.05</v>
+      </c>
+      <c r="C7008" s="2">
+        <v>57.96</v>
+      </c>
+    </row>
+    <row r="7009" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7009" t="s">
+        <v>7009</v>
+      </c>
+      <c r="B7009" s="2">
+        <v>305.10000000000002</v>
+      </c>
+      <c r="C7009" s="2">
+        <v>57.58</v>
+      </c>
+    </row>
+    <row r="7010" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7010" t="s">
+        <v>7010</v>
+      </c>
+      <c r="B7010" s="2">
+        <v>305.2</v>
+      </c>
+      <c r="C7010" s="2">
+        <v>57.48</v>
+      </c>
+    </row>
+    <row r="7011" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7011" t="s">
+        <v>7011</v>
+      </c>
+      <c r="B7011" s="2">
+        <v>304.10000000000002</v>
+      </c>
+      <c r="C7011" s="2">
+        <v>57.16</v>
+      </c>
+    </row>
+    <row r="7012" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7012" t="s">
+        <v>7012</v>
+      </c>
+      <c r="B7012" s="2">
+        <v>304.45</v>
+      </c>
+      <c r="C7012" s="2">
+        <v>57.05</v>
+      </c>
+    </row>
+    <row r="7013" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7013" t="s">
+        <v>7013</v>
+      </c>
+      <c r="B7013" s="2">
+        <v>304.45</v>
+      </c>
+      <c r="C7013" s="2">
+        <v>57.05</v>
       </c>
     </row>
   </sheetData>
@@ -98596,7 +98680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99988DF1-0774-499A-A69F-EEDC788F68F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C612C4DF-827B-4631-805E-76AAFDE2F968}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0"/>
